--- a/artfynd/A 46100-2021.xlsx
+++ b/artfynd/A 46100-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112130676</v>
+        <v>112128181</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,30 +1272,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1303,10 +1304,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489710.4270751951</v>
+        <v>489793.7794798365</v>
       </c>
       <c r="R7" t="n">
-        <v>6951334.153292954</v>
+        <v>6951078.136860993</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1376,7 +1377,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112128181</v>
+        <v>112128360</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1420,10 +1421,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489793.7794798365</v>
+        <v>489807.6439964764</v>
       </c>
       <c r="R8" t="n">
-        <v>6951078.136860993</v>
+        <v>6951100.594136989</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1493,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112128360</v>
+        <v>112130676</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1505,31 +1506,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1537,10 +1537,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489807.6439964764</v>
+        <v>489710.4270751951</v>
       </c>
       <c r="R9" t="n">
-        <v>6951100.594136989</v>
+        <v>6951334.153292954</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112129537</v>
+        <v>112128922</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1855,30 +1855,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1886,10 +1887,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489775.6919008878</v>
+        <v>489783.8606660607</v>
       </c>
       <c r="R12" t="n">
-        <v>6951176.916706808</v>
+        <v>6951141.994010163</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1959,7 +1960,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128922</v>
+        <v>112129823</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2003,10 +2004,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489783.8606660607</v>
+        <v>489776.4091521163</v>
       </c>
       <c r="R13" t="n">
-        <v>6951141.994010163</v>
+        <v>6951260.023924246</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2076,7 +2077,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112129823</v>
+        <v>112128285</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2120,13 +2121,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489776.4091521163</v>
+        <v>489826.4970892972</v>
       </c>
       <c r="R14" t="n">
-        <v>6951260.023924246</v>
+        <v>6951100.535974862</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2193,7 +2194,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112128285</v>
+        <v>112129753</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2237,10 +2238,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489826.4970892972</v>
+        <v>489719.7811002861</v>
       </c>
       <c r="R15" t="n">
-        <v>6951100.535974862</v>
+        <v>6951237.241615356</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2310,10 +2311,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112129753</v>
+        <v>112128535</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2322,31 +2323,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2354,10 +2354,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489719.7811002861</v>
+        <v>489783.3525171153</v>
       </c>
       <c r="R16" t="n">
-        <v>6951237.241615356</v>
+        <v>6951126.383467871</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112128535</v>
+        <v>112130763</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2439,30 +2439,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2470,10 +2471,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489783.3525171153</v>
+        <v>489727.4410674775</v>
       </c>
       <c r="R17" t="n">
-        <v>6951126.383467871</v>
+        <v>6951334.559446033</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2543,7 +2544,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112130763</v>
+        <v>112129947</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2587,13 +2588,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489727.4410674775</v>
+        <v>489761.3152087585</v>
       </c>
       <c r="R18" t="n">
-        <v>6951334.559446033</v>
+        <v>6951285.783708071</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2660,7 +2661,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112129947</v>
+        <v>112129436</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2704,13 +2705,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489761.3152087585</v>
+        <v>489720.906006676</v>
       </c>
       <c r="R19" t="n">
-        <v>6951285.783708071</v>
+        <v>6951155.505621926</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2777,7 +2778,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112129436</v>
+        <v>112129615</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2821,13 +2822,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489720.906006676</v>
+        <v>489775.3074674093</v>
       </c>
       <c r="R20" t="n">
-        <v>6951155.505621926</v>
+        <v>6951201.254026874</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2894,10 +2895,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112129615</v>
+        <v>112128965</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2906,31 +2907,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>489775.3074674093</v>
+        <v>489781.1244568562</v>
       </c>
       <c r="R21" t="n">
-        <v>6951201.254026874</v>
+        <v>6951149.349332461</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112128965</v>
+        <v>112160448</v>
       </c>
       <c r="B22" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3023,41 +3023,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kojberget, Jmt</t>
+          <t>Kojberget (Kojberget), Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>489781.1244568562</v>
+        <v>489859.7502186468</v>
       </c>
       <c r="R22" t="n">
-        <v>6951149.349332461</v>
+        <v>6950848.331780437</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3084,22 +3082,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3108,7 +3106,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3124,6 +3121,1497 @@
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112161656</v>
+      </c>
+      <c r="B23" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Kojberget (Kojberget), Jmt</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>489748.1652041912</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6950901.027040742</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112162733</v>
+      </c>
+      <c r="B24" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Kojberget (Kojberget), Jmt</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>489817.4863973773</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6950862.697649174</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>17:08</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112163597</v>
+      </c>
+      <c r="B25" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Kojberget (Kojberget), Jmt</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>489857.8458518894</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6950827.213469349</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>18:50</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112164082</v>
+      </c>
+      <c r="B26" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Kojberget (Kojberget), Jmt</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>489838.4111752143</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6950788.239104389</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112164381</v>
+      </c>
+      <c r="B27" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Kojberget (Kojberget), Jmt</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>489834.6416731186</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6950758.860000523</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>19:08</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>19:08</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112164221</v>
+      </c>
+      <c r="B28" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Kojberget (Kojberget), Jmt</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>489839.7130641019</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6950762.977472359</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>19:04</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112165532</v>
+      </c>
+      <c r="B29" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Kojberget (Kojberget), Jmt</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>489919.3659411244</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6950642.871754675</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112176960</v>
+      </c>
+      <c r="B30" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Kojberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>489829.4584419513</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6950867.712130185</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112176969</v>
+      </c>
+      <c r="B31" t="n">
+        <v>90662</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>4363</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hydnellum concrescens</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Kojberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>489811.4585502227</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6950846.643597192</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112177010</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Kojberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>489815.7922956712</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6950760.755024059</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112176959</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89965</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>760</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Doftticka</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Haploporus odorus</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Kojberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>489829.4584419513</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6950867.712130185</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112129537</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Kojberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>489775.6919008878</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6951176.916706808</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112177005</v>
+      </c>
+      <c r="B35" t="n">
+        <v>90662</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4363</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Hydnellum concrescens</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Kojberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>489815.7922956712</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6950760.755024059</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 46100-2021.xlsx
+++ b/artfynd/A 46100-2021.xlsx
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112130417</v>
+        <v>112128181</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489712.1789686013</v>
+        <v>489793.7794798365</v>
       </c>
       <c r="R3" t="n">
-        <v>6951306.139429723</v>
+        <v>6951078.136860993</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112129917</v>
+        <v>112129823</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,30 +922,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -953,13 +954,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489716.6124828705</v>
+        <v>489776.4091521163</v>
       </c>
       <c r="R4" t="n">
-        <v>6951253.322243898</v>
+        <v>6951260.023924246</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1026,7 +1027,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112128076</v>
+        <v>112129753</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1070,13 +1071,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489836.9912142227</v>
+        <v>489719.7811002861</v>
       </c>
       <c r="R5" t="n">
-        <v>6951073.870840142</v>
+        <v>6951237.241615356</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1143,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112129159</v>
+        <v>112129917</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,31 +1156,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489737.9009319238</v>
+        <v>489716.6124828705</v>
       </c>
       <c r="R6" t="n">
-        <v>6951149.483434039</v>
+        <v>6951253.322243898</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1260,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112128181</v>
+        <v>112128535</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,31 +1272,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1304,10 +1303,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489793.7794798365</v>
+        <v>489783.3525171153</v>
       </c>
       <c r="R7" t="n">
-        <v>6951078.136860993</v>
+        <v>6951126.383467871</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1377,10 +1376,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112128360</v>
+        <v>112128965</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1389,31 +1388,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1421,13 +1419,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489807.6439964764</v>
+        <v>489781.1244568562</v>
       </c>
       <c r="R8" t="n">
-        <v>6951100.594136989</v>
+        <v>6951149.349332461</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1494,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112130676</v>
+        <v>112129436</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1506,30 +1504,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1537,10 +1536,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489710.4270751951</v>
+        <v>489720.906006676</v>
       </c>
       <c r="R9" t="n">
-        <v>6951334.153292954</v>
+        <v>6951155.505621926</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1610,10 +1609,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112129990</v>
+        <v>112128076</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1622,30 +1621,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489779.2575855854</v>
+        <v>489836.9912142227</v>
       </c>
       <c r="R10" t="n">
-        <v>6951288.94220757</v>
+        <v>6951073.870840142</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112130099</v>
+        <v>112129947</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489754.0010783491</v>
+        <v>489761.3152087585</v>
       </c>
       <c r="R11" t="n">
-        <v>6951299.581142489</v>
+        <v>6951285.783708071</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112128922</v>
+        <v>112129159</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1887,13 +1887,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489783.8606660607</v>
+        <v>489737.9009319238</v>
       </c>
       <c r="R12" t="n">
-        <v>6951141.994010163</v>
+        <v>6951149.483434039</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112129823</v>
+        <v>112130099</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489776.4091521163</v>
+        <v>489754.0010783491</v>
       </c>
       <c r="R13" t="n">
-        <v>6951260.023924246</v>
+        <v>6951299.581142489</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112128285</v>
+        <v>112129990</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2089,31 +2089,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2121,13 +2120,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489826.4970892972</v>
+        <v>489779.2575855854</v>
       </c>
       <c r="R14" t="n">
-        <v>6951100.535974862</v>
+        <v>6951288.94220757</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2194,10 +2193,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112129753</v>
+        <v>112130676</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2206,31 +2205,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2238,10 +2236,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489719.7811002861</v>
+        <v>489710.4270751951</v>
       </c>
       <c r="R15" t="n">
-        <v>6951237.241615356</v>
+        <v>6951334.153292954</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2311,10 +2309,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112128535</v>
+        <v>112128285</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2323,30 +2321,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2354,10 +2353,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489783.3525171153</v>
+        <v>489826.4970892972</v>
       </c>
       <c r="R16" t="n">
-        <v>6951126.383467871</v>
+        <v>6951100.535974862</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2427,7 +2426,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112130763</v>
+        <v>112129615</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2471,13 +2470,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489727.4410674775</v>
+        <v>489775.3074674093</v>
       </c>
       <c r="R17" t="n">
-        <v>6951334.559446033</v>
+        <v>6951201.254026874</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2544,7 +2543,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112129947</v>
+        <v>112128360</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2588,13 +2587,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489761.3152087585</v>
+        <v>489807.6439964764</v>
       </c>
       <c r="R18" t="n">
-        <v>6951285.783708071</v>
+        <v>6951100.594136989</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2661,7 +2660,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112129436</v>
+        <v>112130763</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2705,10 +2704,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489720.906006676</v>
+        <v>489727.4410674775</v>
       </c>
       <c r="R19" t="n">
-        <v>6951155.505621926</v>
+        <v>6951334.559446033</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2778,7 +2777,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112129615</v>
+        <v>112130417</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2822,13 +2821,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489775.3074674093</v>
+        <v>489712.1789686013</v>
       </c>
       <c r="R20" t="n">
-        <v>6951201.254026874</v>
+        <v>6951306.139429723</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2895,10 +2894,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112128965</v>
+        <v>112128922</v>
       </c>
       <c r="B21" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2907,30 +2906,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>489781.1244568562</v>
+        <v>489783.8606660607</v>
       </c>
       <c r="R21" t="n">
-        <v>6951149.349332461</v>
+        <v>6951141.994010163</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112160448</v>
+        <v>112165532</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3052,10 +3052,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>489859.7502186468</v>
+        <v>489919.3659411244</v>
       </c>
       <c r="R22" t="n">
-        <v>6950848.331780437</v>
+        <v>6950642.871754675</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3237,7 +3237,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112162733</v>
+        <v>112164381</v>
       </c>
       <c r="B24" t="n">
         <v>96348</v>
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>489817.4863973773</v>
+        <v>489834.6416731186</v>
       </c>
       <c r="R24" t="n">
-        <v>6950862.697649174</v>
+        <v>6950758.860000523</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3350,7 +3350,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112163597</v>
+        <v>112160448</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3391,10 +3391,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>489857.8458518894</v>
+        <v>489859.7502186468</v>
       </c>
       <c r="R25" t="n">
-        <v>6950827.213469349</v>
+        <v>6950848.331780437</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3463,7 +3463,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112164082</v>
+        <v>112162733</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3504,10 +3504,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>489838.4111752143</v>
+        <v>489817.4863973773</v>
       </c>
       <c r="R26" t="n">
-        <v>6950788.239104389</v>
+        <v>6950862.697649174</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3576,7 +3576,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112164381</v>
+        <v>112163597</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3617,10 +3617,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489834.6416731186</v>
+        <v>489857.8458518894</v>
       </c>
       <c r="R27" t="n">
-        <v>6950758.860000523</v>
+        <v>6950827.213469349</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3689,7 +3689,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112164221</v>
+        <v>112164082</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3730,10 +3730,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489839.7130641019</v>
+        <v>489838.4111752143</v>
       </c>
       <c r="R28" t="n">
-        <v>6950762.977472359</v>
+        <v>6950788.239104389</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3802,7 +3802,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112165532</v>
+        <v>112164221</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3843,10 +3843,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489919.3659411244</v>
+        <v>489839.7130641019</v>
       </c>
       <c r="R29" t="n">
-        <v>6950642.871754675</v>
+        <v>6950762.977472359</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3915,10 +3915,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112176960</v>
+        <v>112176959</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>89965</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3927,28 +3927,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>760</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -4031,10 +4035,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112176969</v>
+        <v>112176960</v>
       </c>
       <c r="B31" t="n">
-        <v>90662</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4043,25 +4047,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4363</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4074,10 +4078,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>489811.4585502227</v>
+        <v>489829.4584419513</v>
       </c>
       <c r="R31" t="n">
-        <v>6950846.643597192</v>
+        <v>6950867.712130185</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
@@ -4147,10 +4151,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112177010</v>
+        <v>112176969</v>
       </c>
       <c r="B32" t="n">
-        <v>90666</v>
+        <v>90662</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4163,21 +4167,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4190,10 +4194,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489815.7922956712</v>
+        <v>489811.4585502227</v>
       </c>
       <c r="R32" t="n">
-        <v>6950760.755024059</v>
+        <v>6950846.643597192</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -4263,10 +4267,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112176959</v>
+        <v>112129537</v>
       </c>
       <c r="B33" t="n">
-        <v>89965</v>
+        <v>90666</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4275,32 +4279,28 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>760</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -4310,10 +4310,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>489829.4584419513</v>
+        <v>489775.6919008878</v>
       </c>
       <c r="R33" t="n">
-        <v>6950867.712130185</v>
+        <v>6951176.916706808</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4383,10 +4383,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112129537</v>
+        <v>112177005</v>
       </c>
       <c r="B34" t="n">
-        <v>90666</v>
+        <v>90662</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4399,21 +4399,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4426,10 +4426,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>489775.6919008878</v>
+        <v>489815.7922956712</v>
       </c>
       <c r="R34" t="n">
-        <v>6951176.916706808</v>
+        <v>6950760.755024059</v>
       </c>
       <c r="S34" t="n">
         <v>1</v>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4499,10 +4499,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112177005</v>
+        <v>112177010</v>
       </c>
       <c r="B35" t="n">
-        <v>90662</v>
+        <v>90666</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4515,21 +4515,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>

--- a/artfynd/A 46100-2021.xlsx
+++ b/artfynd/A 46100-2021.xlsx
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112129753</v>
+        <v>112129917</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1039,31 +1039,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1071,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489719.7811002861</v>
+        <v>489716.6124828705</v>
       </c>
       <c r="R5" t="n">
-        <v>6951237.241615356</v>
+        <v>6951253.322243898</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1144,10 +1143,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112129917</v>
+        <v>112128535</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1156,25 +1155,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1187,10 +1186,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489716.6124828705</v>
+        <v>489783.3525171153</v>
       </c>
       <c r="R6" t="n">
-        <v>6951253.322243898</v>
+        <v>6951126.383467871</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1260,10 +1259,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112128535</v>
+        <v>112129753</v>
       </c>
       <c r="B7" t="n">
-        <v>90666</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1272,30 +1271,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1303,10 +1303,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489783.3525171153</v>
+        <v>489719.7811002861</v>
       </c>
       <c r="R7" t="n">
-        <v>6951126.383467871</v>
+        <v>6951237.241615356</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>

--- a/artfynd/A 46100-2021.xlsx
+++ b/artfynd/A 46100-2021.xlsx
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489770.4842850013</v>
+        <v>489770</v>
       </c>
       <c r="R2" t="n">
-        <v>6951277.031247605</v>
+        <v>6951277</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112128181</v>
+        <v>112128535</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,31 +805,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -837,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489793.7794798365</v>
+        <v>489783</v>
       </c>
       <c r="R3" t="n">
-        <v>6951078.136860993</v>
+        <v>6951126</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -870,19 +869,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,7 +899,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112129823</v>
+        <v>112130099</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -954,10 +943,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489776.4091521163</v>
+        <v>489754</v>
       </c>
       <c r="R4" t="n">
-        <v>6951260.023924246</v>
+        <v>6951300</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -987,19 +976,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1027,10 +1006,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112129917</v>
+        <v>112129159</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1039,30 +1018,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1070,10 +1050,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489716.6124828705</v>
+        <v>489738</v>
       </c>
       <c r="R5" t="n">
-        <v>6951253.322243898</v>
+        <v>6951149</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1103,19 +1083,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1143,10 +1113,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112128535</v>
+        <v>112128181</v>
       </c>
       <c r="B6" t="n">
-        <v>90666</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1155,30 +1125,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1186,10 +1157,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489783.3525171153</v>
+        <v>489794</v>
       </c>
       <c r="R6" t="n">
-        <v>6951126.383467871</v>
+        <v>6951078</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1219,19 +1190,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1259,7 +1220,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112129753</v>
+        <v>112128076</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1303,13 +1264,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489719.7811002861</v>
+        <v>489837</v>
       </c>
       <c r="R7" t="n">
-        <v>6951237.241615356</v>
+        <v>6951074</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1336,19 +1297,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1376,10 +1327,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112128965</v>
+        <v>112129436</v>
       </c>
       <c r="B8" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1388,30 +1339,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1419,13 +1371,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489781.1244568562</v>
+        <v>489721</v>
       </c>
       <c r="R8" t="n">
-        <v>6951149.349332461</v>
+        <v>6951156</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1452,19 +1404,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1492,10 +1434,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112129436</v>
+        <v>112128965</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,31 +1446,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1536,13 +1477,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489720.906006676</v>
+        <v>489781</v>
       </c>
       <c r="R9" t="n">
-        <v>6951155.505621926</v>
+        <v>6951149</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1569,19 +1510,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1609,7 +1540,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112128076</v>
+        <v>112129753</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1653,13 +1584,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489836.9912142227</v>
+        <v>489720</v>
       </c>
       <c r="R10" t="n">
-        <v>6951073.870840142</v>
+        <v>6951237</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1686,19 +1617,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1726,7 +1647,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112129947</v>
+        <v>112130417</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1770,13 +1691,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489761.3152087585</v>
+        <v>489712</v>
       </c>
       <c r="R11" t="n">
-        <v>6951285.783708071</v>
+        <v>6951306</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1803,19 +1724,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1843,7 +1754,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112129159</v>
+        <v>112129947</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1887,13 +1798,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489737.9009319238</v>
+        <v>489761</v>
       </c>
       <c r="R12" t="n">
-        <v>6951149.483434039</v>
+        <v>6951286</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1920,19 +1831,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1960,7 +1861,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112130099</v>
+        <v>112128360</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2004,13 +1905,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489754.0010783491</v>
+        <v>489808</v>
       </c>
       <c r="R13" t="n">
-        <v>6951299.581142489</v>
+        <v>6951101</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2037,19 +1938,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2077,10 +1968,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112129990</v>
+        <v>112129917</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2093,21 +1984,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2120,13 +2011,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489779.2575855854</v>
+        <v>489717</v>
       </c>
       <c r="R14" t="n">
-        <v>6951288.94220757</v>
+        <v>6951253</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2153,19 +2044,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2193,10 +2074,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112130676</v>
+        <v>112130763</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2205,30 +2086,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2236,10 +2118,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489710.4270751951</v>
+        <v>489727</v>
       </c>
       <c r="R15" t="n">
-        <v>6951334.153292954</v>
+        <v>6951335</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2269,19 +2151,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2309,10 +2181,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112128285</v>
+        <v>112130676</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2321,31 +2193,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2353,10 +2224,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489826.4970892972</v>
+        <v>489710</v>
       </c>
       <c r="R16" t="n">
-        <v>6951100.535974862</v>
+        <v>6951334</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2386,19 +2257,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2470,10 +2331,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489775.3074674093</v>
+        <v>489775</v>
       </c>
       <c r="R17" t="n">
-        <v>6951201.254026874</v>
+        <v>6951201</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2503,19 +2364,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2543,7 +2394,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112128360</v>
+        <v>112128922</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2587,13 +2438,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489807.6439964764</v>
+        <v>489784</v>
       </c>
       <c r="R18" t="n">
-        <v>6951100.594136989</v>
+        <v>6951142</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2620,19 +2471,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2660,7 +2501,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112130763</v>
+        <v>112128285</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2704,10 +2545,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489727.4410674775</v>
+        <v>489826</v>
       </c>
       <c r="R19" t="n">
-        <v>6951334.559446033</v>
+        <v>6951101</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2737,19 +2578,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2777,10 +2608,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112130417</v>
+        <v>112129990</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2789,31 +2620,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2821,13 +2651,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489712.1789686013</v>
+        <v>489779</v>
       </c>
       <c r="R20" t="n">
-        <v>6951306.139429723</v>
+        <v>6951289</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2854,19 +2684,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2894,7 +2714,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112128922</v>
+        <v>112129823</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2938,10 +2758,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>489783.8606660607</v>
+        <v>489776</v>
       </c>
       <c r="R21" t="n">
-        <v>6951141.994010163</v>
+        <v>6951260</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2971,19 +2791,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3011,7 +2821,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112165532</v>
+        <v>112164082</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3052,10 +2862,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>489919.3659411244</v>
+        <v>489838</v>
       </c>
       <c r="R22" t="n">
-        <v>6950642.871754675</v>
+        <v>6950788</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -3087,7 +2897,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3097,7 +2907,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3124,7 +2934,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112161656</v>
+        <v>112165532</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3165,10 +2975,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>489748.1652041912</v>
+        <v>489919</v>
       </c>
       <c r="R23" t="n">
-        <v>6950901.027040742</v>
+        <v>6950643</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3200,7 +3010,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3210,7 +3020,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3237,7 +3047,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112164381</v>
+        <v>112162733</v>
       </c>
       <c r="B24" t="n">
         <v>96348</v>
@@ -3278,10 +3088,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>489834.6416731186</v>
+        <v>489817</v>
       </c>
       <c r="R24" t="n">
-        <v>6950758.860000523</v>
+        <v>6950863</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3313,7 +3123,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3323,7 +3133,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3350,7 +3160,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112160448</v>
+        <v>112164221</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3391,10 +3201,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>489859.7502186468</v>
+        <v>489840</v>
       </c>
       <c r="R25" t="n">
-        <v>6950848.331780437</v>
+        <v>6950763</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -3426,7 +3236,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3436,7 +3246,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3463,7 +3273,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112162733</v>
+        <v>112161656</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3504,10 +3314,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>489817.4863973773</v>
+        <v>489748</v>
       </c>
       <c r="R26" t="n">
-        <v>6950862.697649174</v>
+        <v>6950901</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -3576,7 +3386,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112163597</v>
+        <v>112160448</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3617,10 +3427,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489857.8458518894</v>
+        <v>489860</v>
       </c>
       <c r="R27" t="n">
-        <v>6950827.213469349</v>
+        <v>6950848</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -3652,7 +3462,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3662,7 +3472,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3689,7 +3499,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112164082</v>
+        <v>112164381</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3730,10 +3540,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489838.4111752143</v>
+        <v>489835</v>
       </c>
       <c r="R28" t="n">
-        <v>6950788.239104389</v>
+        <v>6950759</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3765,7 +3575,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3775,7 +3585,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3802,7 +3612,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112164221</v>
+        <v>112163597</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3843,10 +3653,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489839.7130641019</v>
+        <v>489858</v>
       </c>
       <c r="R29" t="n">
-        <v>6950762.977472359</v>
+        <v>6950827</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3878,7 +3688,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3888,7 +3698,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3962,10 +3772,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489829.4584419513</v>
+        <v>489829</v>
       </c>
       <c r="R30" t="n">
-        <v>6950867.712130185</v>
+        <v>6950868</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -3995,19 +3805,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4078,10 +3878,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>489829.4584419513</v>
+        <v>489829</v>
       </c>
       <c r="R31" t="n">
-        <v>6950867.712130185</v>
+        <v>6950868</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
@@ -4111,19 +3911,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4151,10 +3941,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112176969</v>
+        <v>112177010</v>
       </c>
       <c r="B32" t="n">
-        <v>90662</v>
+        <v>90666</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4167,21 +3957,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4194,10 +3984,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489811.4585502227</v>
+        <v>489816</v>
       </c>
       <c r="R32" t="n">
-        <v>6950846.643597192</v>
+        <v>6950761</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -4227,19 +4017,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4310,10 +4090,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>489775.6919008878</v>
+        <v>489776</v>
       </c>
       <c r="R33" t="n">
-        <v>6951176.916706808</v>
+        <v>6951177</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -4343,19 +4123,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4383,7 +4153,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112177005</v>
+        <v>112176969</v>
       </c>
       <c r="B34" t="n">
         <v>90662</v>
@@ -4426,10 +4196,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>489815.7922956712</v>
+        <v>489811</v>
       </c>
       <c r="R34" t="n">
-        <v>6950760.755024059</v>
+        <v>6950847</v>
       </c>
       <c r="S34" t="n">
         <v>1</v>
@@ -4459,19 +4229,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4499,10 +4259,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112177010</v>
+        <v>112177005</v>
       </c>
       <c r="B35" t="n">
-        <v>90666</v>
+        <v>90662</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4515,21 +4275,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4542,10 +4302,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>489815.7922956712</v>
+        <v>489816</v>
       </c>
       <c r="R35" t="n">
-        <v>6950760.755024059</v>
+        <v>6950761</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -4575,19 +4335,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">

--- a/artfynd/A 46100-2021.xlsx
+++ b/artfynd/A 46100-2021.xlsx
@@ -683,7 +683,7 @@
         <v>112113909</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112128535</v>
+        <v>112128181</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>96720</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,30 +805,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -836,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489783</v>
+        <v>489794</v>
       </c>
       <c r="R3" t="n">
-        <v>6951126</v>
+        <v>6951078</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -899,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112130099</v>
+        <v>112130417</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -943,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489754</v>
+        <v>489712</v>
       </c>
       <c r="R4" t="n">
-        <v>6951300</v>
+        <v>6951306</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1009,7 +1010,7 @@
         <v>112129159</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1113,10 +1114,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112128181</v>
+        <v>112129990</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>78699</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1125,31 +1126,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1157,13 +1157,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489794</v>
+        <v>489779</v>
       </c>
       <c r="R6" t="n">
-        <v>6951078</v>
+        <v>6951289</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112128076</v>
+        <v>112130763</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489837</v>
+        <v>489727</v>
       </c>
       <c r="R7" t="n">
-        <v>6951074</v>
+        <v>6951335</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129436</v>
+        <v>112128360</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489721</v>
+        <v>489808</v>
       </c>
       <c r="R8" t="n">
-        <v>6951156</v>
+        <v>6951101</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112128965</v>
+        <v>112128535</v>
       </c>
       <c r="B9" t="n">
-        <v>90332</v>
+        <v>90800</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1450,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4769</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489781</v>
+        <v>489783</v>
       </c>
       <c r="R9" t="n">
-        <v>6951149</v>
+        <v>6951126</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112129753</v>
+        <v>112128922</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1584,13 +1584,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489720</v>
+        <v>489784</v>
       </c>
       <c r="R10" t="n">
-        <v>6951237</v>
+        <v>6951142</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112130417</v>
+        <v>112130099</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1691,13 +1691,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489712</v>
+        <v>489754</v>
       </c>
       <c r="R11" t="n">
-        <v>6951306</v>
+        <v>6951300</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1754,10 +1754,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112129947</v>
+        <v>112129823</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1798,10 +1798,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489761</v>
+        <v>489776</v>
       </c>
       <c r="R12" t="n">
-        <v>6951286</v>
+        <v>6951260</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112128360</v>
+        <v>112129917</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>77636</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1873,31 +1873,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1905,10 +1904,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489808</v>
+        <v>489717</v>
       </c>
       <c r="R13" t="n">
-        <v>6951101</v>
+        <v>6951253</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -1968,10 +1967,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112129917</v>
+        <v>112128076</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>96720</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1980,30 +1979,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489717</v>
+        <v>489837</v>
       </c>
       <c r="R14" t="n">
-        <v>6951253</v>
+        <v>6951074</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112130763</v>
+        <v>112129615</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489727</v>
+        <v>489775</v>
       </c>
       <c r="R15" t="n">
-        <v>6951335</v>
+        <v>6951201</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112130676</v>
+        <v>112128965</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>90466</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2193,25 +2193,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>4769</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2224,13 +2224,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489710</v>
+        <v>489781</v>
       </c>
       <c r="R16" t="n">
-        <v>6951334</v>
+        <v>6951149</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112129615</v>
+        <v>112129753</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2331,13 +2331,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489775</v>
+        <v>489720</v>
       </c>
       <c r="R17" t="n">
-        <v>6951201</v>
+        <v>6951237</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2394,10 +2394,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112128922</v>
+        <v>112129947</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2438,10 +2438,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489784</v>
+        <v>489761</v>
       </c>
       <c r="R18" t="n">
-        <v>6951142</v>
+        <v>6951286</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2501,10 +2501,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112128285</v>
+        <v>112130676</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>78699</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2513,31 +2513,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2545,10 +2544,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489826</v>
+        <v>489710</v>
       </c>
       <c r="R19" t="n">
-        <v>6951101</v>
+        <v>6951334</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2608,10 +2607,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112129990</v>
+        <v>112129436</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>96720</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2620,30 +2619,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489779</v>
+        <v>489721</v>
       </c>
       <c r="R20" t="n">
-        <v>6951289</v>
+        <v>6951156</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112129823</v>
+        <v>112128285</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2758,13 +2758,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>489776</v>
+        <v>489826</v>
       </c>
       <c r="R21" t="n">
-        <v>6951260</v>
+        <v>6951101</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2821,10 +2821,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112164082</v>
+        <v>112129537</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>90800</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2833,39 +2833,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kojberget (Kojberget), Jmt</t>
+          <t>Kojberget, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>489838</v>
+        <v>489776</v>
       </c>
       <c r="R22" t="n">
-        <v>6950788</v>
+        <v>6951177</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2892,22 +2894,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>19:00</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>19:00</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2916,6 +2908,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -2934,10 +2927,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112165532</v>
+        <v>112163597</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2975,10 +2968,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>489919</v>
+        <v>489858</v>
       </c>
       <c r="R23" t="n">
-        <v>6950643</v>
+        <v>6950827</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3010,7 +3003,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3020,7 +3013,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3047,10 +3040,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112162733</v>
+        <v>112160448</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3088,10 +3081,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>489817</v>
+        <v>489860</v>
       </c>
       <c r="R24" t="n">
-        <v>6950863</v>
+        <v>6950848</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3123,7 +3116,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3133,7 +3126,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3160,10 +3153,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112164221</v>
+        <v>112161656</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3201,10 +3194,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>489840</v>
+        <v>489748</v>
       </c>
       <c r="R25" t="n">
-        <v>6950763</v>
+        <v>6950901</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -3236,7 +3229,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3246,7 +3239,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3273,10 +3266,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112161656</v>
+        <v>112162733</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3314,10 +3307,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>489748</v>
+        <v>489817</v>
       </c>
       <c r="R26" t="n">
-        <v>6950901</v>
+        <v>6950863</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -3386,10 +3379,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112160448</v>
+        <v>112164381</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3427,10 +3420,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489860</v>
+        <v>489835</v>
       </c>
       <c r="R27" t="n">
-        <v>6950848</v>
+        <v>6950759</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -3462,7 +3455,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3472,7 +3465,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3499,10 +3492,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112164381</v>
+        <v>112164082</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3540,10 +3533,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489835</v>
+        <v>489838</v>
       </c>
       <c r="R28" t="n">
-        <v>6950759</v>
+        <v>6950788</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3575,7 +3568,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3585,7 +3578,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3612,10 +3605,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112163597</v>
+        <v>112164221</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3653,10 +3646,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489858</v>
+        <v>489840</v>
       </c>
       <c r="R29" t="n">
-        <v>6950827</v>
+        <v>6950763</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3688,7 +3681,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3698,7 +3691,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3725,10 +3718,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112176959</v>
+        <v>112165532</v>
       </c>
       <c r="B30" t="n">
-        <v>89965</v>
+        <v>96720</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3741,41 +3734,35 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>760</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Kojberget, Jmt</t>
+          <t>Kojberget (Kojberget), Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489829</v>
+        <v>489919</v>
       </c>
       <c r="R30" t="n">
-        <v>6950868</v>
+        <v>6950643</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -3805,18 +3792,27 @@
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>19:44</t>
+        </is>
+      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3838,7 +3834,7 @@
         <v>112176960</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3941,10 +3937,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112177010</v>
+        <v>112177005</v>
       </c>
       <c r="B32" t="n">
-        <v>90666</v>
+        <v>90796</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3957,21 +3953,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4047,10 +4043,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112129537</v>
+        <v>112177010</v>
       </c>
       <c r="B33" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4090,10 +4086,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>489776</v>
+        <v>489816</v>
       </c>
       <c r="R33" t="n">
-        <v>6951177</v>
+        <v>6950761</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
@@ -4120,12 +4116,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4156,7 +4152,7 @@
         <v>112176969</v>
       </c>
       <c r="B34" t="n">
-        <v>90662</v>
+        <v>90796</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4259,10 +4255,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112177005</v>
+        <v>112176959</v>
       </c>
       <c r="B35" t="n">
-        <v>90662</v>
+        <v>90099</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4271,28 +4267,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4363</v>
+        <v>760</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -4302,10 +4302,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>489816</v>
+        <v>489829</v>
       </c>
       <c r="R35" t="n">
-        <v>6950761</v>
+        <v>6950868</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>

--- a/artfynd/A 46100-2021.xlsx
+++ b/artfynd/A 46100-2021.xlsx
@@ -3605,7 +3605,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112164221</v>
+        <v>112165532</v>
       </c>
       <c r="B29" t="n">
         <v>96720</v>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489840</v>
+        <v>489919</v>
       </c>
       <c r="R29" t="n">
-        <v>6950763</v>
+        <v>6950643</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3718,7 +3718,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112165532</v>
+        <v>112164221</v>
       </c>
       <c r="B30" t="n">
         <v>96720</v>
@@ -3759,10 +3759,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489919</v>
+        <v>489840</v>
       </c>
       <c r="R30" t="n">
-        <v>6950643</v>
+        <v>6950763</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 46100-2021.xlsx
+++ b/artfynd/A 46100-2021.xlsx
@@ -683,7 +683,7 @@
         <v>112113909</v>
       </c>
       <c r="B2" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112128181</v>
+        <v>112128535</v>
       </c>
       <c r="B3" t="n">
-        <v>96720</v>
+        <v>90814</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,31 +805,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -837,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489794</v>
+        <v>489783</v>
       </c>
       <c r="R3" t="n">
-        <v>6951078</v>
+        <v>6951126</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -900,10 +899,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112130417</v>
+        <v>112128181</v>
       </c>
       <c r="B4" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,10 +943,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489712</v>
+        <v>489794</v>
       </c>
       <c r="R4" t="n">
-        <v>6951306</v>
+        <v>6951078</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1007,10 +1006,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112129159</v>
+        <v>112129917</v>
       </c>
       <c r="B5" t="n">
-        <v>96720</v>
+        <v>77650</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1019,31 +1018,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1051,10 +1049,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489738</v>
+        <v>489717</v>
       </c>
       <c r="R5" t="n">
-        <v>6951149</v>
+        <v>6951253</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1114,10 +1112,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112129990</v>
+        <v>112128922</v>
       </c>
       <c r="B6" t="n">
-        <v>78699</v>
+        <v>96735</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1126,30 +1124,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1157,10 +1156,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489779</v>
+        <v>489784</v>
       </c>
       <c r="R6" t="n">
-        <v>6951289</v>
+        <v>6951142</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1220,10 +1219,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112130763</v>
+        <v>112128360</v>
       </c>
       <c r="B7" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1264,10 +1263,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489727</v>
+        <v>489808</v>
       </c>
       <c r="R7" t="n">
-        <v>6951335</v>
+        <v>6951101</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1327,10 +1326,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112128360</v>
+        <v>112129823</v>
       </c>
       <c r="B8" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1371,13 +1370,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489808</v>
+        <v>489776</v>
       </c>
       <c r="R8" t="n">
-        <v>6951101</v>
+        <v>6951260</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1434,10 +1433,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112128535</v>
+        <v>112129753</v>
       </c>
       <c r="B9" t="n">
-        <v>90800</v>
+        <v>96735</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1446,30 +1445,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489783</v>
+        <v>489720</v>
       </c>
       <c r="R9" t="n">
-        <v>6951126</v>
+        <v>6951237</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112128922</v>
+        <v>112129947</v>
       </c>
       <c r="B10" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1584,10 +1584,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489784</v>
+        <v>489761</v>
       </c>
       <c r="R10" t="n">
-        <v>6951142</v>
+        <v>6951286</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112130099</v>
+        <v>112128965</v>
       </c>
       <c r="B11" t="n">
-        <v>96720</v>
+        <v>90480</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1659,31 +1659,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1691,10 +1690,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489754</v>
+        <v>489781</v>
       </c>
       <c r="R11" t="n">
-        <v>6951300</v>
+        <v>6951149</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1754,10 +1753,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112129823</v>
+        <v>112130417</v>
       </c>
       <c r="B12" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1798,13 +1797,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489776</v>
+        <v>489712</v>
       </c>
       <c r="R12" t="n">
-        <v>6951260</v>
+        <v>6951306</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1861,10 +1860,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112129917</v>
+        <v>112129436</v>
       </c>
       <c r="B13" t="n">
-        <v>77636</v>
+        <v>96735</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1873,30 +1872,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1904,10 +1904,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489717</v>
+        <v>489721</v>
       </c>
       <c r="R13" t="n">
-        <v>6951253</v>
+        <v>6951156</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112128076</v>
+        <v>112130763</v>
       </c>
       <c r="B14" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2011,13 +2011,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489837</v>
+        <v>489727</v>
       </c>
       <c r="R14" t="n">
-        <v>6951074</v>
+        <v>6951335</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112129615</v>
+        <v>112128076</v>
       </c>
       <c r="B15" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489775</v>
+        <v>489837</v>
       </c>
       <c r="R15" t="n">
-        <v>6951201</v>
+        <v>6951074</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112128965</v>
+        <v>112130676</v>
       </c>
       <c r="B16" t="n">
-        <v>90466</v>
+        <v>78713</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2193,25 +2193,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2224,13 +2224,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489781</v>
+        <v>489710</v>
       </c>
       <c r="R16" t="n">
-        <v>6951149</v>
+        <v>6951334</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112129753</v>
+        <v>112128285</v>
       </c>
       <c r="B17" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2331,10 +2331,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489720</v>
+        <v>489826</v>
       </c>
       <c r="R17" t="n">
-        <v>6951237</v>
+        <v>6951101</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2394,10 +2394,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112129947</v>
+        <v>112130099</v>
       </c>
       <c r="B18" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2438,10 +2438,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489761</v>
+        <v>489754</v>
       </c>
       <c r="R18" t="n">
-        <v>6951286</v>
+        <v>6951300</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -2501,10 +2501,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112130676</v>
+        <v>112129615</v>
       </c>
       <c r="B19" t="n">
-        <v>78699</v>
+        <v>96735</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2513,30 +2513,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2544,13 +2545,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489710</v>
+        <v>489775</v>
       </c>
       <c r="R19" t="n">
-        <v>6951334</v>
+        <v>6951201</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2607,10 +2608,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112129436</v>
+        <v>112129990</v>
       </c>
       <c r="B20" t="n">
-        <v>96720</v>
+        <v>78713</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2619,31 +2620,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489721</v>
+        <v>489779</v>
       </c>
       <c r="R20" t="n">
-        <v>6951156</v>
+        <v>6951289</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2714,10 +2714,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112128285</v>
+        <v>112129159</v>
       </c>
       <c r="B21" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>489826</v>
+        <v>489738</v>
       </c>
       <c r="R21" t="n">
-        <v>6951101</v>
+        <v>6951149</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2824,7 +2824,7 @@
         <v>112129537</v>
       </c>
       <c r="B22" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2927,10 +2927,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112163597</v>
+        <v>112161656</v>
       </c>
       <c r="B23" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2968,10 +2968,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>489858</v>
+        <v>489748</v>
       </c>
       <c r="R23" t="n">
-        <v>6950827</v>
+        <v>6950901</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3040,10 +3040,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112160448</v>
+        <v>112163597</v>
       </c>
       <c r="B24" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>489860</v>
+        <v>489858</v>
       </c>
       <c r="R24" t="n">
-        <v>6950848</v>
+        <v>6950827</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3153,10 +3153,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112161656</v>
+        <v>112164082</v>
       </c>
       <c r="B25" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>489748</v>
+        <v>489838</v>
       </c>
       <c r="R25" t="n">
-        <v>6950901</v>
+        <v>6950788</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3266,10 +3266,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112162733</v>
+        <v>112164221</v>
       </c>
       <c r="B26" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>489817</v>
+        <v>489840</v>
       </c>
       <c r="R26" t="n">
-        <v>6950863</v>
+        <v>6950763</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3379,10 +3379,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112164381</v>
+        <v>112160448</v>
       </c>
       <c r="B27" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489835</v>
+        <v>489860</v>
       </c>
       <c r="R27" t="n">
-        <v>6950759</v>
+        <v>6950848</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3492,10 +3492,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112164082</v>
+        <v>112165532</v>
       </c>
       <c r="B28" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3533,10 +3533,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489838</v>
+        <v>489919</v>
       </c>
       <c r="R28" t="n">
-        <v>6950788</v>
+        <v>6950643</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3605,10 +3605,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112165532</v>
+        <v>112162733</v>
       </c>
       <c r="B29" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489919</v>
+        <v>489817</v>
       </c>
       <c r="R29" t="n">
-        <v>6950643</v>
+        <v>6950863</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3718,10 +3718,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112164221</v>
+        <v>112164381</v>
       </c>
       <c r="B30" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3759,10 +3759,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489840</v>
+        <v>489835</v>
       </c>
       <c r="R30" t="n">
-        <v>6950763</v>
+        <v>6950759</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3831,10 +3831,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112176960</v>
+        <v>112176969</v>
       </c>
       <c r="B31" t="n">
-        <v>78699</v>
+        <v>90810</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3843,25 +3843,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>4363</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3874,10 +3874,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>489829</v>
+        <v>489811</v>
       </c>
       <c r="R31" t="n">
-        <v>6950868</v>
+        <v>6950847</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
@@ -3937,10 +3937,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112177005</v>
+        <v>112176959</v>
       </c>
       <c r="B32" t="n">
-        <v>90796</v>
+        <v>90113</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3949,28 +3949,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4363</v>
+        <v>760</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -3980,10 +3984,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489816</v>
+        <v>489829</v>
       </c>
       <c r="R32" t="n">
-        <v>6950761</v>
+        <v>6950868</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -4043,10 +4047,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112177010</v>
+        <v>112177005</v>
       </c>
       <c r="B33" t="n">
-        <v>90800</v>
+        <v>90810</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4059,21 +4063,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Pers.) Banker</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4149,10 +4153,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112176969</v>
+        <v>112177010</v>
       </c>
       <c r="B34" t="n">
-        <v>90796</v>
+        <v>90814</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4165,21 +4169,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4192,10 +4196,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>489811</v>
+        <v>489816</v>
       </c>
       <c r="R34" t="n">
-        <v>6950847</v>
+        <v>6950761</v>
       </c>
       <c r="S34" t="n">
         <v>1</v>
@@ -4255,10 +4259,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112176959</v>
+        <v>112176960</v>
       </c>
       <c r="B35" t="n">
-        <v>90099</v>
+        <v>78713</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4267,32 +4271,28 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>760</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>

--- a/artfynd/A 46100-2021.xlsx
+++ b/artfynd/A 46100-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY35"/>
+  <dimension ref="A1:AY37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112128535</v>
+        <v>112128922</v>
       </c>
       <c r="B3" t="n">
-        <v>90814</v>
+        <v>96735</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,30 +805,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -836,13 +837,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489783</v>
+        <v>489784</v>
       </c>
       <c r="R3" t="n">
-        <v>6951126</v>
+        <v>6951142</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -899,7 +900,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112128181</v>
+        <v>112129823</v>
       </c>
       <c r="B4" t="n">
         <v>96735</v>
@@ -943,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489794</v>
+        <v>489776</v>
       </c>
       <c r="R4" t="n">
-        <v>6951078</v>
+        <v>6951260</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1006,10 +1007,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112129917</v>
+        <v>112129947</v>
       </c>
       <c r="B5" t="n">
-        <v>77650</v>
+        <v>96735</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1018,30 +1019,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1049,13 +1051,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>489717</v>
+        <v>489761</v>
       </c>
       <c r="R5" t="n">
-        <v>6951253</v>
+        <v>6951286</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1112,7 +1114,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112128922</v>
+        <v>112129615</v>
       </c>
       <c r="B6" t="n">
         <v>96735</v>
@@ -1156,10 +1158,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>489784</v>
+        <v>489775</v>
       </c>
       <c r="R6" t="n">
-        <v>6951142</v>
+        <v>6951201</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1219,7 +1221,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112128360</v>
+        <v>112129436</v>
       </c>
       <c r="B7" t="n">
         <v>96735</v>
@@ -1263,10 +1265,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489808</v>
+        <v>489721</v>
       </c>
       <c r="R7" t="n">
-        <v>6951101</v>
+        <v>6951156</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1326,7 +1328,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129823</v>
+        <v>112128181</v>
       </c>
       <c r="B8" t="n">
         <v>96735</v>
@@ -1370,13 +1372,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489776</v>
+        <v>489794</v>
       </c>
       <c r="R8" t="n">
-        <v>6951260</v>
+        <v>6951078</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1540,7 +1542,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112129947</v>
+        <v>112129159</v>
       </c>
       <c r="B10" t="n">
         <v>96735</v>
@@ -1584,13 +1586,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489761</v>
+        <v>489738</v>
       </c>
       <c r="R10" t="n">
-        <v>6951286</v>
+        <v>6951149</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1647,10 +1649,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112128965</v>
+        <v>112128360</v>
       </c>
       <c r="B11" t="n">
-        <v>90480</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1659,30 +1661,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1690,13 +1693,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489781</v>
+        <v>489808</v>
       </c>
       <c r="R11" t="n">
-        <v>6951149</v>
+        <v>6951101</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1753,7 +1756,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112130417</v>
+        <v>112128076</v>
       </c>
       <c r="B12" t="n">
         <v>96735</v>
@@ -1797,13 +1800,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489712</v>
+        <v>489837</v>
       </c>
       <c r="R12" t="n">
-        <v>6951306</v>
+        <v>6951074</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1860,7 +1863,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112129436</v>
+        <v>112130763</v>
       </c>
       <c r="B13" t="n">
         <v>96735</v>
@@ -1904,10 +1907,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489721</v>
+        <v>489727</v>
       </c>
       <c r="R13" t="n">
-        <v>6951156</v>
+        <v>6951335</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -1967,10 +1970,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112130763</v>
+        <v>112129990</v>
       </c>
       <c r="B14" t="n">
-        <v>96735</v>
+        <v>78713</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1979,31 +1982,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2011,13 +2013,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489727</v>
+        <v>489779</v>
       </c>
       <c r="R14" t="n">
-        <v>6951335</v>
+        <v>6951289</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2074,10 +2076,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112128076</v>
+        <v>112128535</v>
       </c>
       <c r="B15" t="n">
-        <v>96735</v>
+        <v>90814</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2086,31 +2088,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2118,13 +2119,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489837</v>
+        <v>489783</v>
       </c>
       <c r="R15" t="n">
-        <v>6951074</v>
+        <v>6951126</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2181,10 +2182,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112130676</v>
+        <v>112128965</v>
       </c>
       <c r="B16" t="n">
-        <v>78713</v>
+        <v>90480</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2193,25 +2194,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>4769</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2224,13 +2225,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489710</v>
+        <v>489781</v>
       </c>
       <c r="R16" t="n">
-        <v>6951334</v>
+        <v>6951149</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2287,10 +2288,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112128285</v>
+        <v>112130676</v>
       </c>
       <c r="B17" t="n">
-        <v>96735</v>
+        <v>78713</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2299,31 +2300,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2331,10 +2331,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489826</v>
+        <v>489710</v>
       </c>
       <c r="R17" t="n">
-        <v>6951101</v>
+        <v>6951334</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112130099</v>
+        <v>112128285</v>
       </c>
       <c r="B18" t="n">
         <v>96735</v>
@@ -2438,13 +2438,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489754</v>
+        <v>489826</v>
       </c>
       <c r="R18" t="n">
-        <v>6951300</v>
+        <v>6951101</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112129615</v>
+        <v>112130099</v>
       </c>
       <c r="B19" t="n">
         <v>96735</v>
@@ -2545,10 +2545,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489775</v>
+        <v>489754</v>
       </c>
       <c r="R19" t="n">
-        <v>6951201</v>
+        <v>6951300</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112129990</v>
+        <v>112129917</v>
       </c>
       <c r="B20" t="n">
-        <v>78713</v>
+        <v>77650</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2624,21 +2624,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>489779</v>
+        <v>489717</v>
       </c>
       <c r="R20" t="n">
-        <v>6951289</v>
+        <v>6951253</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112129159</v>
+        <v>112130417</v>
       </c>
       <c r="B21" t="n">
         <v>96735</v>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>489738</v>
+        <v>489712</v>
       </c>
       <c r="R21" t="n">
-        <v>6951149</v>
+        <v>6951306</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2821,10 +2821,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112129537</v>
+        <v>112160448</v>
       </c>
       <c r="B22" t="n">
-        <v>90814</v>
+        <v>96735</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2833,41 +2833,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kojberget, Jmt</t>
+          <t>Kojberget (Kojberget), Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>489776</v>
+        <v>489860</v>
       </c>
       <c r="R22" t="n">
-        <v>6951177</v>
+        <v>6950848</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2894,12 +2892,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>16:59</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>16:59</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2908,7 +2916,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -2927,7 +2934,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112161656</v>
+        <v>112162733</v>
       </c>
       <c r="B23" t="n">
         <v>96735</v>
@@ -2968,10 +2975,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>489748</v>
+        <v>489817</v>
       </c>
       <c r="R23" t="n">
-        <v>6950901</v>
+        <v>6950863</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
@@ -3040,7 +3047,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112163597</v>
+        <v>112161656</v>
       </c>
       <c r="B24" t="n">
         <v>96735</v>
@@ -3081,10 +3088,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>489858</v>
+        <v>489748</v>
       </c>
       <c r="R24" t="n">
-        <v>6950827</v>
+        <v>6950901</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
@@ -3116,7 +3123,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3126,7 +3133,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>18:50</t>
+          <t>17:08</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3153,7 +3160,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112164082</v>
+        <v>112164381</v>
       </c>
       <c r="B25" t="n">
         <v>96735</v>
@@ -3194,10 +3201,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>489838</v>
+        <v>489835</v>
       </c>
       <c r="R25" t="n">
-        <v>6950788</v>
+        <v>6950759</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -3229,7 +3236,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3239,7 +3246,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3266,7 +3273,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112164221</v>
+        <v>112165532</v>
       </c>
       <c r="B26" t="n">
         <v>96735</v>
@@ -3307,10 +3314,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>489840</v>
+        <v>489919</v>
       </c>
       <c r="R26" t="n">
-        <v>6950763</v>
+        <v>6950643</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -3342,7 +3349,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3352,7 +3359,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>19:44</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3379,7 +3386,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112160448</v>
+        <v>112164082</v>
       </c>
       <c r="B27" t="n">
         <v>96735</v>
@@ -3420,10 +3427,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489860</v>
+        <v>489838</v>
       </c>
       <c r="R27" t="n">
-        <v>6950848</v>
+        <v>6950788</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
@@ -3455,7 +3462,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3465,7 +3472,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3492,7 +3499,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112165532</v>
+        <v>112163597</v>
       </c>
       <c r="B28" t="n">
         <v>96735</v>
@@ -3533,10 +3540,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489919</v>
+        <v>489858</v>
       </c>
       <c r="R28" t="n">
-        <v>6950643</v>
+        <v>6950827</v>
       </c>
       <c r="S28" t="n">
         <v>1</v>
@@ -3568,7 +3575,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3578,7 +3585,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:44</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3605,7 +3612,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112162733</v>
+        <v>112164221</v>
       </c>
       <c r="B29" t="n">
         <v>96735</v>
@@ -3646,10 +3653,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489817</v>
+        <v>489840</v>
       </c>
       <c r="R29" t="n">
-        <v>6950863</v>
+        <v>6950763</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -3681,7 +3688,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3691,7 +3698,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>17:08</t>
+          <t>19:04</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3718,10 +3725,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112164381</v>
+        <v>112176959</v>
       </c>
       <c r="B30" t="n">
-        <v>96735</v>
+        <v>90113</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3734,35 +3741,41 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>760</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Kojberget (Kojberget), Jmt</t>
+          <t>Kojberget, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>489835</v>
+        <v>489829</v>
       </c>
       <c r="R30" t="n">
-        <v>6950759</v>
+        <v>6950868</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -3792,27 +3805,18 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>19:08</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>19:08</t>
-        </is>
-      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3831,10 +3835,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112176969</v>
+        <v>112129537</v>
       </c>
       <c r="B31" t="n">
-        <v>90810</v>
+        <v>90814</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3847,21 +3851,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Zontaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum concrescens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Pers.) Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3874,10 +3878,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>489811</v>
+        <v>489776</v>
       </c>
       <c r="R31" t="n">
-        <v>6950847</v>
+        <v>6951177</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
@@ -3904,12 +3908,12 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3937,10 +3941,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112176959</v>
+        <v>112176969</v>
       </c>
       <c r="B32" t="n">
-        <v>90113</v>
+        <v>90810</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3949,32 +3953,28 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>760</v>
+        <v>4363</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Zontaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Hydnellum concrescens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Pers.) Banker</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -3984,10 +3984,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>489829</v>
+        <v>489811</v>
       </c>
       <c r="R32" t="n">
-        <v>6950868</v>
+        <v>6950847</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
@@ -4363,6 +4363,224 @@
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112546026</v>
+      </c>
+      <c r="B36" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Kojberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>489795</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6951267</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112546049</v>
+      </c>
+      <c r="B37" t="n">
+        <v>77402</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Kojberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>489803</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6951289</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Berg</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Hackås</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Väldigt många liknande kolade högstubbar i hela området.</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Erik Wilhelmsson</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 46100-2021.xlsx
+++ b/artfynd/A 46100-2021.xlsx
@@ -1542,10 +1542,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112129159</v>
+        <v>112129990</v>
       </c>
       <c r="B10" t="n">
-        <v>96735</v>
+        <v>78713</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1554,31 +1554,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1586,13 +1585,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489738</v>
+        <v>489779</v>
       </c>
       <c r="R10" t="n">
-        <v>6951149</v>
+        <v>6951289</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1649,7 +1648,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112128360</v>
+        <v>112129159</v>
       </c>
       <c r="B11" t="n">
         <v>96735</v>
@@ -1693,10 +1692,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489808</v>
+        <v>489738</v>
       </c>
       <c r="R11" t="n">
-        <v>6951101</v>
+        <v>6951149</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1756,7 +1755,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112128076</v>
+        <v>112128360</v>
       </c>
       <c r="B12" t="n">
         <v>96735</v>
@@ -1800,13 +1799,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489837</v>
+        <v>489808</v>
       </c>
       <c r="R12" t="n">
-        <v>6951074</v>
+        <v>6951101</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1863,7 +1862,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112130763</v>
+        <v>112128076</v>
       </c>
       <c r="B13" t="n">
         <v>96735</v>
@@ -1907,13 +1906,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489727</v>
+        <v>489837</v>
       </c>
       <c r="R13" t="n">
-        <v>6951335</v>
+        <v>6951074</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1970,10 +1969,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112129990</v>
+        <v>112130763</v>
       </c>
       <c r="B14" t="n">
-        <v>78713</v>
+        <v>96735</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1982,30 +1981,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2013,13 +2013,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489779</v>
+        <v>489727</v>
       </c>
       <c r="R14" t="n">
-        <v>6951289</v>
+        <v>6951335</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112128285</v>
+        <v>112130099</v>
       </c>
       <c r="B18" t="n">
         <v>96735</v>
@@ -2438,13 +2438,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489826</v>
+        <v>489754</v>
       </c>
       <c r="R18" t="n">
-        <v>6951101</v>
+        <v>6951300</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112130099</v>
+        <v>112128285</v>
       </c>
       <c r="B19" t="n">
         <v>96735</v>
@@ -2545,13 +2545,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489754</v>
+        <v>489826</v>
       </c>
       <c r="R19" t="n">
-        <v>6951300</v>
+        <v>6951101</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
